--- a/src/main/resources/files/Dane.xlsx
+++ b/src/main/resources/files/Dane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BARTEK\Intelij\selenium\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B20A5B-CC72-4630-8B3B-B40FDBDA5A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FA1D3D-B05C-4B27-8AC7-2F1750A74FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{ED974FA6-03F9-4FF7-B645-94688DD663FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED974FA6-03F9-4FF7-B645-94688DD663FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Miasto</t>
   </si>
@@ -78,8 +78,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,8 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -423,65 +433,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246D7B0A-DAD3-4921-B8D0-9CA85494C905}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/files/Dane.xlsx
+++ b/src/main/resources/files/Dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BARTEK\Intelij\selenium\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FA1D3D-B05C-4B27-8AC7-2F1750A74FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7183C0-5A6D-49F8-94CF-E3502A9436A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED974FA6-03F9-4FF7-B645-94688DD663FB}"/>
   </bookViews>
@@ -65,13 +65,13 @@
     <t>Rose Rayhaan Rotana</t>
   </si>
   <si>
-    <t>$22</t>
-  </si>
-  <si>
     <t>$50</t>
   </si>
   <si>
     <t>$80</t>
+  </si>
+  <si>
+    <t>$12</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,19 +492,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -521,19 +521,19 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
